--- a/pedroproject/1.Atalent_submissions.xlsx
+++ b/pedroproject/1.Atalent_submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D344F4-6122-4567-99AF-1A3234D2779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A61E384-4B1F-4331-BA47-071B0370EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="816" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,15 +106,6 @@
     <t>Community Manager</t>
   </si>
   <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
-  </si>
-  <si>
-    <t>High School</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -124,12 +115,6 @@
     <t>talk</t>
   </si>
   <si>
-    <t>MPC, Content Creator</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
     <t>@letsrule.inj</t>
   </si>
   <si>
@@ -145,28 +130,45 @@
     <t>keplr</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>277501</t>
-  </si>
-  <si>
     <t>https://pedroinjraccoon.online/</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1iS0A-mFRHjxMjOMYjtRfDUAZUl_cLkwo?usp=drive_link</t>
   </si>
   <si>
-    <t>This is a test. This is a test. This is a test. This is a test.</t>
-  </si>
-  <si>
-    <t>2025-05-20 20:27:10</t>
+    <t>https://i.postimg.cc/DypSMTbn/avatar-0001.png</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Associate's Degree</t>
+  </si>
+  <si>
+    <t>Cryptography, Community Manager, Content Creator, Engagement Specialist, Brand Ambassador, Community Analytics, Collab Manager</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9643751</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet. Ut molestias animi est delectus iste ea porro architecto quo voluptatem libero id doloremque consequatur nam voluptate atque sed nobis fugit? Ut neque corporis aut reprehenderit iusto ea error quae in labore consectetur. Et nesciunt blanditiis est quas dolores quo quibusdam soluta?
+Aut aliquam molestiae ea eius velit sit maxime distinctio aut facilis dolores sit pariatur dolores aut voluptatem laborum! Qui modi alias est aspernatur aperiam rem aliquid quidem in dignissimos dolorum sit eveniet omnis a excepturi laboriosam sed harum minima. Sit sunt rerum ut expedita galisum id dolores consequatur.
+Et quia blanditiis nam deserunt numquam aut obcaecati quis aut quas fugit. Sit cumque quod At consequatur ipsam ab quia voluptas ut sequi distinctio! Rem dolorem adipisci id internos dicta id nesciunt voluptates et velit temporibus et excepturi illo sed corporis Quis eos officiis consequatur? Et blanditiis facere ut maxime officia aut galisum internos ab atque deleniti.</t>
+  </si>
+  <si>
+    <t>2025-05-22 00:38:52</t>
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/DypSMTbn/avatar-0001.png</t>
   </si>
 </sst>
 </file>
@@ -209,7 +211,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -522,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,78 +622,78 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
+      <c r="W2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
         <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{1D8C0610-6157-4214-92A8-8B3E4621A353}"/>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{7546EEFF-4462-48B6-91E1-63089BD979D7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pedroproject/1.Atalent_submissions.xlsx
+++ b/pedroproject/1.Atalent_submissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A61E384-4B1F-4331-BA47-071B0370EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0F51F-C079-42BB-B067-68647EB65546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="816" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submissions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Cid_Kagenou</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Waky002</t>
+  </si>
+  <si>
+    <t>https://x.com/Uwakmfon104</t>
+  </si>
+  <si>
+    <t>I'm a young and aspiring individual, solely focus on making!</t>
   </si>
 </sst>
 </file>
@@ -218,7 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,15 +548,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="25" width="31.1796875" style="1" customWidth="1"/>
+    <col min="1" max="8" width="31.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="115.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="31.1796875" style="1" customWidth="1"/>
     <col min="26" max="26" width="8.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,85 +643,157 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1" xr:uid="{7546EEFF-4462-48B6-91E1-63089BD979D7}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{A6CF19A2-BF8F-4A27-8CAF-999F7F659B73}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pedroproject/1.Atalent_submissions.xlsx
+++ b/pedroproject/1.Atalent_submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0F51F-C079-42BB-B067-68647EB65546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C437A0-E895-43B8-B02B-2AB7D8AD31D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>inj1x6u08aa3plhk3utjk7wpyjkurtwnwp6dhudh0j</t>
-  </si>
-  <si>
     <t>keplr</t>
   </si>
   <si>
@@ -160,11 +157,6 @@
     <t>9643751</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet. Ut molestias animi est delectus iste ea porro architecto quo voluptatem libero id doloremque consequatur nam voluptate atque sed nobis fugit? Ut neque corporis aut reprehenderit iusto ea error quae in labore consectetur. Et nesciunt blanditiis est quas dolores quo quibusdam soluta?
-Aut aliquam molestiae ea eius velit sit maxime distinctio aut facilis dolores sit pariatur dolores aut voluptatem laborum! Qui modi alias est aspernatur aperiam rem aliquid quidem in dignissimos dolorum sit eveniet omnis a excepturi laboriosam sed harum minima. Sit sunt rerum ut expedita galisum id dolores consequatur.
-Et quia blanditiis nam deserunt numquam aut obcaecati quis aut quas fugit. Sit cumque quod At consequatur ipsam ab quia voluptas ut sequi distinctio! Rem dolorem adipisci id internos dicta id nesciunt voluptates et velit temporibus et excepturi illo sed corporis Quis eos officiis consequatur? Et blanditiis facere ut maxime officia aut galisum internos ab atque deleniti.</t>
-  </si>
-  <si>
     <t>2025-05-22 00:38:52</t>
   </si>
   <si>
@@ -192,14 +184,173 @@
     <t>https://x.com/Uwakmfon104</t>
   </si>
   <si>
-    <t>I'm a young and aspiring individual, solely focus on making!</t>
+    <t>Adura Crypto</t>
+  </si>
+  <si>
+    <t>MRNAME</t>
+  </si>
+  <si>
+    <t>Big Zetsu</t>
+  </si>
+  <si>
+    <t>Dragon Knight</t>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
+  </si>
+  <si>
+    <t>Collab Manager</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>English, Dutch</t>
+  </si>
+  <si>
+    <t>fridayuwakmfon93@gmail.com</t>
+  </si>
+  <si>
+    <t>inaadura@gmail.com</t>
+  </si>
+  <si>
+    <t>mrname770@gmail.com</t>
+  </si>
+  <si>
+    <t>wiwo.layeo@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-05-22 00:38:53</t>
+  </si>
+  <si>
+    <t>2025-05-22 00:38:54</t>
+  </si>
+  <si>
+    <t>2025-05-22 00:38:55</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://x.com/kingname770/status/1876302273267323367?s=46</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a65o9XIMwG7fDuMaJQpUgfaBhAkBPyIJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_dRvU7jDPthR1w5dX1yFgKuxVMAcGPHP/view</t>
+  </si>
+  <si>
+    <t>@Dragon_knight</t>
+  </si>
+  <si>
+    <t>@bvg_zetsu</t>
+  </si>
+  <si>
+    <t>@MRNAME</t>
+  </si>
+  <si>
+    <t>@adura_crypto</t>
+  </si>
+  <si>
+    <t>@Waky001.badboo.inj</t>
+  </si>
+  <si>
+    <t>adura_crypto</t>
+  </si>
+  <si>
+    <t>bvg_zetsu</t>
+  </si>
+  <si>
+    <t>MRNAME770</t>
+  </si>
+  <si>
+    <t>Altamashkuwaja</t>
+  </si>
+  <si>
+    <t>https://x.com/Adura_Crypto</t>
+  </si>
+  <si>
+    <t>https://x.com/kingname770?s=21</t>
+  </si>
+  <si>
+    <t>https://x.com/bvg_zetsu</t>
+  </si>
+  <si>
+    <t>https://x.com/AltamashKPRMR</t>
+  </si>
+  <si>
+    <t>https://x.com/InjPedro</t>
+  </si>
+  <si>
+    <t>inj1x6u08aa3plhk3utjk7wpyjkurtwnwp6dhudh0p</t>
+  </si>
+  <si>
+    <t>Create content and been a good community engager will grow the project for sure!</t>
+  </si>
+  <si>
+    <t>Hello, I'm MRNAME, a passionate crypto enthusiast with extensive experience in the web3 ecosystem. With a passion for innovation and a deep understanding of web3, I'm dedicated to exploring the limitless possibilities of the digital world. Hit me up let’s give your community the reach it deserves!!</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet. Ut molestias animi est delectus iste ea porro architecto quo voluptatem libero id doloremque consequatur nam voluptate atque sed nobis fugit? Ut neque corporis aut reprehenderit iusto ea error quae in labore consectetur. Et nesciunt blanditiis est quas dolores quo quibusdam soluta?</t>
+  </si>
+  <si>
+    <t>My top priority is building strong business relationships through exceptional service and memorable experiences. With a passion for design and development, I am dedicated to delivering excellence while ensuring outstanding customer service. From the moment you reach out, I'm ready to dive in and bring your vision to life.</t>
+  </si>
+  <si>
+    <t>My top priority is building strong business relationships through exceptional service and memorable experiences. With over six years of experience as a UX/UI Designer, eight years as a WordPress Web Designer, and one year as an Angular Web Developer, I am dedicated to delivering excellence while ensuring outstanding customer service. From the moment you reach out, I'm ready to dive in and bring your vision to life.</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Community Manager, Content Creator, Engagement Specialist, Collab Manager, Social Media, Influencer, Event Coordinator, Brand Ambassador, Team Leadership</t>
+  </si>
+  <si>
+    <t>Graphic Design, Collab Manager, Engagement Specialist</t>
+  </si>
+  <si>
+    <t>Collab Manager, Community Manager</t>
+  </si>
+  <si>
+    <t>NFT Marketing, Community Manager</t>
+  </si>
+  <si>
+    <t>dragonknightinj@gmail.com</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tTb3P1YD/Q32-GCZ-P-400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yYxFFC8q/XFf-JZc-Pi-400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mgFC5398/u-USC9-GDl-400x400.jpg</t>
+  </si>
+  <si>
+    <t>Hi, I'm passionate innovator diving into the worlds of AI, Web3, and digital identity. With a knack for engaging audiences and a drive to make an impact, I’m excited to connect and build a brighter, decentralized future! Proudly I can say, I breathe life into Skeletal projects</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/4yqn6MWZ/Ew-ASc-GUU-400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y2ZSy5xB/6zy-Xb3v-Y-400x400.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,16 +366,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF1C40F"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,18 +415,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -261,6 +477,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="🎯">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6BF4C1-E899-10D4-85D4-742261E95336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="60998100" y="4178300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="🏆">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89742944-8A21-5143-5C98-B3F07249BA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="61309250" y="4178300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="💪">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75870533-1EA5-AC42-0660-CBFF794710E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="61931550" y="4178300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1549400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5" descr="💎">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37502B9C-2BF7-21B4-3C97-E1E0E76F6B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="62242700" y="4178300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1555750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1860550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="AutoShape 6" descr="📩">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9977B797-EB9B-FB66-93E6-797829A157D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="62553850" y="4178300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B169C38-8E68-817B-9EFF-D08B719B745D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31381700" y="7988300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,21 +1057,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="8" width="31.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="115.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="31.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="137.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="31.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="41.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="31.1796875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="81.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="31.1796875" style="1" customWidth="1"/>
     <col min="26" max="26" width="8.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="130.5" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -650,13 +1164,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -668,10 +1182,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>31</v>
@@ -679,64 +1193,67 @@
       <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
+      <c r="O2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="117.5" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
@@ -745,19 +1262,25 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
+      <c r="K3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>33</v>
@@ -766,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -780,21 +1303,359 @@
       <c r="V3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="39.5" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="117.5" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="130.5" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="169.5" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="L11" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1" xr:uid="{7546EEFF-4462-48B6-91E1-63089BD979D7}"/>
     <hyperlink ref="O3" r:id="rId2" xr:uid="{A6CF19A2-BF8F-4A27-8CAF-999F7F659B73}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{12842FCB-381B-4013-BF64-85F74580340C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/pedroproject/1.Atalent_submissions.xlsx
+++ b/pedroproject/1.Atalent_submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C437A0-E895-43B8-B02B-2AB7D8AD31D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EE2EE0-E05D-48DE-A2C5-022B78E78C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -244,9 +244,6 @@
     <t>https://drive.google.com/file/d/1a65o9XIMwG7fDuMaJQpUgfaBhAkBPyIJ/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1_dRvU7jDPthR1w5dX1yFgKuxVMAcGPHP/view</t>
-  </si>
-  <si>
     <t>@Dragon_knight</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>My top priority is building strong business relationships through exceptional service and memorable experiences. With a passion for design and development, I am dedicated to delivering excellence while ensuring outstanding customer service. From the moment you reach out, I'm ready to dive in and bring your vision to life.</t>
   </si>
   <si>
-    <t>My top priority is building strong business relationships through exceptional service and memorable experiences. With over six years of experience as a UX/UI Designer, eight years as a WordPress Web Designer, and one year as an Angular Web Developer, I am dedicated to delivering excellence while ensuring outstanding customer service. From the moment you reach out, I'm ready to dive in and bring your vision to life.</t>
-  </si>
-  <si>
     <t>5-7</t>
   </si>
   <si>
@@ -344,6 +338,15 @@
   </si>
   <si>
     <t>https://i.postimg.cc/Y2ZSy5xB/6zy-Xb3v-Y-400x400.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm eagerly seeking opportunities in the Web3 space, particularly in community marketing, management, content creation, or PR. I also bring a solid skillset for advancing Web2 projects and leading teams, backed by 8+ years of experience in the field, including 1 year in Dubai, where I'm currently based. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q5D0r4vE4moVejDLUtTaWuMkGEwvORQr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://www.behance.net/AltamashKhuwaja</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +464,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1059,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1200,13 +1204,13 @@
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>34</v>
@@ -1227,7 +1231,7 @@
         <v>37</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>45</v>
@@ -1262,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>64</v>
@@ -1304,10 +1308,10 @@
         <v>33</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>45</v>
@@ -1342,13 +1346,13 @@
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>65</v>
@@ -1357,10 +1361,10 @@
         <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>33</v>
@@ -1384,10 +1388,10 @@
         <v>71</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>68</v>
@@ -1422,13 +1426,13 @@
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>66</v>
@@ -1437,10 +1441,10 @@
         <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>33</v>
@@ -1464,10 +1468,10 @@
         <v>72</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>69</v>
@@ -1487,7 +1491,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
@@ -1502,13 +1506,13 @@
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>67</v>
@@ -1517,10 +1521,10 @@
         <v>33</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>33</v>
@@ -1544,10 +1548,10 @@
         <v>73</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>70</v>
@@ -1556,7 +1560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="169.5" thickBot="1">
+    <row r="7" spans="1:26" ht="117.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -1582,25 +1586,25 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>33</v>
@@ -1617,17 +1621,17 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>74</v>
+      <c r="U7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>70</v>
@@ -1654,8 +1658,10 @@
     <hyperlink ref="W2" r:id="rId1" xr:uid="{7546EEFF-4462-48B6-91E1-63089BD979D7}"/>
     <hyperlink ref="O3" r:id="rId2" xr:uid="{A6CF19A2-BF8F-4A27-8CAF-999F7F659B73}"/>
     <hyperlink ref="O2" r:id="rId3" xr:uid="{12842FCB-381B-4013-BF64-85F74580340C}"/>
+    <hyperlink ref="V7" r:id="rId4" tooltip="https://drive.google.com/file/d/1Q5D0r4vE4moVejDLUtTaWuMkGEwvORQr/view?usp=drivesdk" xr:uid="{D531BDF9-8017-46E0-9F61-EBAAAABB3A00}"/>
+    <hyperlink ref="U7" r:id="rId5" tooltip="https://www.behance.net/AltamashKhuwaja" xr:uid="{98306597-C430-47F1-A524-3B4E5763730C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>